--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -406,10 +406,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -422,6 +422,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,14 +450,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,10 +471,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,10 +486,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,9 +501,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,9 +551,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,46 +563,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -573,187 +573,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,32 +776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,27 +807,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,6 +838,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -872,145 +872,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2016,6 +2016,9 @@
       </c>
       <c r="E18" t="s">
         <v>59</v>
+      </c>
+      <c r="H18">
+        <v>50001</v>
       </c>
       <c r="I18">
         <v>1</v>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -421,22 +421,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,52 +466,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,6 +490,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -518,7 +533,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -535,15 +550,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,13 +563,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -573,6 +573,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -585,61 +699,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,109 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,38 +770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,11 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,6 +830,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -872,145 +872,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,6 +1074,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1358,28 +1363,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
-    <col min="3" max="4" width="15.225" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
     <col min="5" max="8" width="27.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.225" customWidth="1"/>
-    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.1083333333333" customWidth="1"/>
-    <col min="12" max="12" width="12.6333333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="12.6296296296296" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="12.6296296296296" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1523,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1532,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1566,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1575,7 +1579,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1609,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1618,7 +1622,7 @@
         <v>26</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1652,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1661,7 +1665,7 @@
         <v>29</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>5</v>
@@ -1701,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1710,7 +1714,7 @@
         <v>32</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
@@ -1746,11 +1750,15 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1779,11 +1787,15 @@
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1812,16 +1824,20 @@
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1845,8 +1861,14 @@
       <c r="I11" s="1">
         <v>4</v>
       </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1870,8 +1892,14 @@
       <c r="I12" s="1">
         <v>5</v>
       </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1893,11 +1921,16 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1919,11 +1952,16 @@
       <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1945,11 +1983,16 @@
       <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1971,11 +2014,16 @@
       <c r="I16" s="1">
         <v>4</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1997,46 +2045,270 @@
       <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
+    <row r="18" spans="1:44">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H18">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
         <v>50001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>1</v>
       </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+    <row r="19" spans="1:44">
+      <c r="A19" s="1">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2055,7 +2327,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2072,7 +2344,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>id</t>
   </si>
@@ -326,7 +326,7 @@
     <t>mageTowerlv1</t>
   </si>
   <si>
-    <t>mageTowerShooter</t>
+    <t>mageTowerNecroShooter</t>
   </si>
   <si>
     <t>二级魔法塔</t>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>mageTowerNecromancer</t>
-  </si>
-  <si>
-    <t>mageTowerNecroShooter</t>
   </si>
   <si>
     <t>大法师塔</t>
@@ -406,9 +403,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -427,84 +424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,9 +448,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,6 +516,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +530,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -573,37 +570,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,49 +720,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,91 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,15 +761,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -815,6 +803,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -830,17 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,133 +881,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,6 +1360,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1371,19 +1369,19 @@
   <sheetPr/>
   <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
+    <col min="3" max="4" width="15.225" customWidth="1"/>
     <col min="5" max="8" width="27.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.2222222222222" customWidth="1"/>
-    <col min="10" max="10" width="12.6296296296296" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="12.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="15.225" customWidth="1"/>
+    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="12.6333333333333" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1854,7 +1852,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1873,19 +1871,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1904,7 +1902,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1913,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1935,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1944,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1966,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1975,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1997,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -2006,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2028,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -2037,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2059,7 +2057,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2068,7 +2066,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2123,14 +2121,14 @@
         <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2327,7 +2325,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2344,7 +2342,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -94,51 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>liyingqi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-弹道特效ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>liyingqi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-产生的兵种ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -164,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -186,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -208,12 +164,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liyingqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-直线
+2-曲线</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liyingqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+产生的兵种ID</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>id</t>
   </si>
@@ -233,30 +234,36 @@
     <t>Shooter</t>
   </si>
   <si>
-    <t>bullet</t>
+    <t>level</t>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>attackDamage</t>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>attackId</t>
+  </si>
+  <si>
+    <t>bulletId</t>
+  </si>
+  <si>
+    <t>bulletType</t>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
   </si>
   <si>
     <t>soliderId</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>attackSpeed</t>
-  </si>
-  <si>
-    <t>attackDamage</t>
-  </si>
-  <si>
-    <t>attackRange</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>attackId</t>
-  </si>
-  <si>
     <t>skill1</t>
   </si>
   <si>
@@ -326,25 +333,28 @@
     <t>mageTowerlv1</t>
   </si>
   <si>
+    <t>mageTowerShooter</t>
+  </si>
+  <si>
+    <t>二级魔法塔</t>
+  </si>
+  <si>
+    <t>mageTowerlv2</t>
+  </si>
+  <si>
+    <t>三级魔法塔</t>
+  </si>
+  <si>
+    <t>mageTowerlv3</t>
+  </si>
+  <si>
+    <t>巫师塔</t>
+  </si>
+  <si>
+    <t>mageTowerNecromancer</t>
+  </si>
+  <si>
     <t>mageTowerNecroShooter</t>
-  </si>
-  <si>
-    <t>二级魔法塔</t>
-  </si>
-  <si>
-    <t>mageTowerlv2</t>
-  </si>
-  <si>
-    <t>三级魔法塔</t>
-  </si>
-  <si>
-    <t>mageTowerlv3</t>
-  </si>
-  <si>
-    <t>巫师塔</t>
-  </si>
-  <si>
-    <t>mageTowerNecromancer</t>
   </si>
   <si>
     <t>大法师塔</t>
@@ -403,10 +413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -418,7 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,7 +436,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,8 +457,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,33 +511,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,9 +535,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,37 +565,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,25 +580,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,157 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,60 +771,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,16 +793,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,6 +838,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,133 +891,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,25 +1377,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AR22"/>
+  <dimension ref="A1:AT22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
     <col min="3" max="4" width="15.225" customWidth="1"/>
-    <col min="5" max="8" width="27.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.225" customWidth="1"/>
-    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.1083333333333" customWidth="1"/>
-    <col min="12" max="12" width="12.6333333333333" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
+    <col min="12" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,69 +1450,81 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1511,41 +1533,49 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10</v>
-      </c>
       <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>80</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1554,41 +1584,49 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>20</v>
-      </c>
       <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>80</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1597,41 +1635,49 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>30</v>
-      </c>
       <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>80</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1640,47 +1686,55 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>35</v>
-      </c>
       <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
+        <v>80</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
         <v>5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>7</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1689,47 +1743,55 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>60</v>
-      </c>
       <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
+        <v>80</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
         <v>6</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>8</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1738,35 +1800,47 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
       <c r="N8" s="1">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>80</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1775,35 +1849,47 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
       <c r="N9" s="1">
-        <v>2</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>80</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1812,35 +1898,41 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>2</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1849,29 +1941,37 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
       <c r="I11" s="1">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1880,29 +1980,37 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1911,29 +2019,31 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1942,29 +2052,31 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="N14" s="1">
-        <v>2</v>
-      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1973,29 +2085,31 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -2004,29 +2118,31 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -2035,29 +2151,31 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="G17" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:46">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2066,27 +2184,27 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
         <v>50001</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2115,20 +2233,22 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:46">
       <c r="A19" s="1">
         <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2169,8 +2289,10 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:46">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2215,8 +2337,10 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:46">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2261,8 +2385,10 @@
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:46">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2307,6 +2433,8 @@
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="6420"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -164,30 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>liyingqi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1-直线
-2-曲线</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>id</t>
   </si>
@@ -250,15 +227,6 @@
   </si>
   <si>
     <t>attackId</t>
-  </si>
-  <si>
-    <t>bulletId</t>
-  </si>
-  <si>
-    <t>bulletType</t>
-  </si>
-  <si>
-    <t>bulletSpeed</t>
   </si>
   <si>
     <t>soliderId</t>
@@ -413,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -436,46 +404,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,67 +412,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,6 +431,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -570,6 +467,77 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -580,187 +548,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,30 +739,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -813,6 +757,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -824,26 +777,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,8 +799,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,133 +859,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AT22"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1392,10 +1360,10 @@
     <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
     <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
-    <col min="12" max="16" width="12" customWidth="1"/>
+    <col min="12" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,96 +1415,78 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1551,32 +1501,23 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>80</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1584,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1602,31 +1543,22 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>80</v>
-      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1635,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1653,31 +1585,22 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
       </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>80</v>
-      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1686,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1704,37 +1627,28 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1">
-        <v>80</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1">
-        <v>5</v>
-      </c>
-      <c r="R6" s="1">
         <v>7</v>
       </c>
-      <c r="S6" s="1">
+      <c r="P6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1743,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -1761,37 +1675,28 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O7" s="1">
-        <v>80</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1">
-        <v>6</v>
-      </c>
-      <c r="R7" s="1">
         <v>8</v>
       </c>
-      <c r="S7" s="1">
+      <c r="P7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1800,10 +1705,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1819,28 +1724,19 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>80</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1849,10 +1745,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1870,26 +1766,17 @@
       <c r="L9" s="1">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>80</v>
-      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1898,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1923,16 +1810,13 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1941,10 +1825,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
@@ -1962,16 +1846,13 @@
         <v>2</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1980,10 +1861,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -2001,16 +1882,13 @@
         <v>2</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -2019,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -2034,16 +1912,13 @@
         <v>2</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -2052,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -2067,16 +1942,13 @@
         <v>2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -2085,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -2100,16 +1972,13 @@
         <v>2</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -2118,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -2133,16 +2002,13 @@
         <v>2</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -2151,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -2166,16 +2032,13 @@
         <v>2</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:43">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2184,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -2199,12 +2062,12 @@
       <c r="L18" s="1">
         <v>2</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>50001</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1">
-        <v>50001</v>
-      </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2232,23 +2095,20 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:43">
       <c r="A19" s="1">
         <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2288,11 +2148,8 @@
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:43">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2336,11 +2193,8 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:43">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2384,11 +2238,8 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:43">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2432,9 +2283,6 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -381,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -396,7 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,34 +405,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,14 +419,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,7 +456,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +464,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -484,48 +486,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,6 +508,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -548,187 +548,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,8 +760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,24 +796,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,6 +813,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -847,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,16 +859,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,115 +877,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1906,10 +1906,14 @@
       <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M13" s="1"/>
     </row>
@@ -1936,10 +1940,14 @@
       <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M14" s="1"/>
     </row>
@@ -1966,10 +1974,14 @@
       <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="L15" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M15" s="1"/>
     </row>
@@ -1996,8 +2008,12 @@
       <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
@@ -2026,8 +2042,12 @@
       <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1">
+        <v>60</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="L17" s="1">
         <v>2</v>
       </c>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>id</t>
   </si>
@@ -368,6 +368,30 @@
   </si>
   <si>
     <t>barrackTowerlv1</t>
+  </si>
+  <si>
+    <t>二级兵营</t>
+  </si>
+  <si>
+    <t>barrackTowerlv2</t>
+  </si>
+  <si>
+    <t>三级兵营</t>
+  </si>
+  <si>
+    <t>barrackTowerlv3</t>
+  </si>
+  <si>
+    <t>骑士营</t>
+  </si>
+  <si>
+    <t>barrackTowerKnight</t>
+  </si>
+  <si>
+    <t>野人营</t>
+  </si>
+  <si>
+    <t>barrackTowerSavage</t>
   </si>
   <si>
     <t>沙漠塔位</t>
@@ -381,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -395,6 +419,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -402,9 +510,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,61 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,21 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -516,28 +562,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -548,187 +572,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,6 +785,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -781,6 +814,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -792,6 +836,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,35 +863,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,10 +871,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,133 +883,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,28 +1362,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
-    <col min="3" max="4" width="15.225" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
     <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.225" customWidth="1"/>
-    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1722,7 +1745,9 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -1762,7 +1787,9 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L9" s="1">
         <v>2</v>
       </c>
@@ -1802,7 +1829,9 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L10" s="1">
         <v>2</v>
       </c>
@@ -1842,6 +1871,9 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L11" s="1">
         <v>2</v>
       </c>
@@ -1878,6 +1910,9 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L12" s="1">
         <v>2</v>
       </c>
@@ -1912,6 +1947,9 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L13" s="1">
         <v>6</v>
       </c>
@@ -1946,6 +1984,9 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L14" s="1">
         <v>6</v>
       </c>
@@ -1980,6 +2021,9 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L15" s="1">
         <v>6</v>
       </c>
@@ -2014,6 +2058,9 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
@@ -2048,6 +2095,9 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
+      <c r="K17" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="L17" s="1">
         <v>2</v>
       </c>
@@ -2073,15 +2123,13 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <v>2</v>
-      </c>
+      <c r="K18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1">
         <v>50001</v>
       </c>
@@ -2118,26 +2166,34 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>50001</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2170,19 +2226,35 @@
       <c r="AQ19" s="1"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>50001</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2215,19 +2287,35 @@
       <c r="AQ20" s="1"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>50001</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2260,19 +2348,35 @@
       <c r="AQ21" s="1"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>50001</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2304,6 +2408,194 @@
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
     </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="1">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2321,7 +2613,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2338,7 +2630,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="28695" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -419,9 +419,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,11 +486,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,67 +501,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,16 +541,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,22 +562,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -572,43 +572,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,139 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,20 +781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,26 +813,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,8 +823,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,6 +843,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -871,10 +871,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,133 +883,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,6 +1362,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1370,19 +1371,19 @@
   <sheetPr/>
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
+    <col min="3" max="4" width="15.225" customWidth="1"/>
     <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1749,7 +1750,7 @@
         <v>34</v>
       </c>
       <c r="L8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1791,7 +1792,7 @@
         <v>37</v>
       </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1833,7 +1834,7 @@
         <v>39</v>
       </c>
       <c r="L10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1875,7 +1876,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -1914,7 +1915,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -2613,7 +2614,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2630,7 +2631,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="6795"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>id</t>
   </si>
@@ -244,6 +244,9 @@
     <t>skill4</t>
   </si>
   <si>
+    <t>nextlevel</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>arrowTowerlv3Shooter</t>
   </si>
   <si>
+    <t>4|5</t>
+  </si>
+  <si>
     <t>精灵箭塔</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
     <t>mageTowerlv3</t>
   </si>
   <si>
+    <t>9|10</t>
+  </si>
+  <si>
     <t>巫师塔</t>
   </si>
   <si>
@@ -352,6 +361,9 @@
     <t>artilleryTowerlv3</t>
   </si>
   <si>
+    <t>14|15</t>
+  </si>
+  <si>
     <t>地震塔</t>
   </si>
   <si>
@@ -382,6 +394,9 @@
     <t>barrackTowerlv3</t>
   </si>
   <si>
+    <t>19|20</t>
+  </si>
+  <si>
     <t>骑士营</t>
   </si>
   <si>
@@ -398,6 +413,9 @@
   </si>
   <si>
     <t>towerTerrain_1</t>
+  </si>
+  <si>
+    <t>1|6|11|16</t>
   </si>
 </sst>
 </file>
@@ -405,15 +423,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -427,8 +460,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,22 +497,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,46 +526,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -527,7 +544,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,28 +580,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -572,181 +590,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,32 +784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,8 +811,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +837,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,26 +881,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -871,10 +889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,139 +901,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,7 +1383,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1371,23 +1391,24 @@
   <sheetPr/>
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
-    <col min="3" max="4" width="15.225" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
     <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.225" customWidth="1"/>
-    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
+    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,66 +1460,72 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1507,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1525,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -1534,13 +1561,17 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1549,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1567,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -1576,13 +1607,17 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1591,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1609,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -1618,13 +1653,17 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1633,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1651,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
@@ -1666,13 +1705,15 @@
       <c r="P6" s="1">
         <v>9</v>
       </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1681,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -1699,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1714,13 +1755,15 @@
       <c r="P7" s="1">
         <v>10</v>
       </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1729,10 +1772,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1747,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -1756,13 +1799,17 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1771,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1789,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -1798,13 +1845,17 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1813,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1831,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -1840,13 +1891,17 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1855,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
@@ -1873,19 +1928,24 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
       </c>
       <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1894,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -1912,19 +1972,24 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1">
         <v>3</v>
       </c>
       <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1933,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -1949,19 +2014,26 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L13" s="1">
         <v>6</v>
       </c>
       <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1970,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -1986,19 +2058,26 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L14" s="1">
         <v>6</v>
       </c>
       <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -2007,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -2023,19 +2102,26 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L15" s="1">
         <v>6</v>
       </c>
       <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -2044,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -2060,19 +2146,24 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
       <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -2081,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -2097,19 +2188,24 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
       </c>
       <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2118,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -2128,7 +2224,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -2138,7 +2234,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1">
+        <v>17</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2170,7 +2268,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2179,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -2189,7 +2287,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -2199,7 +2297,9 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1">
+        <v>18</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2231,7 +2331,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2240,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -2250,7 +2350,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -2260,7 +2360,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -2292,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -2301,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -2311,7 +2413,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -2353,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -2362,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -2372,7 +2474,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -2414,14 +2516,14 @@
         <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2435,7 +2537,9 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -2614,7 +2718,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2631,7 +2735,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>id</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>一级箭塔</t>
@@ -423,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -438,14 +441,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,37 +463,36 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +506,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,9 +546,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,14 +557,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,13 +576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -590,19 +593,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,163 +725,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,15 +784,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -804,15 +798,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,6 +822,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,142 +904,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,6 +1383,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1391,21 +1392,21 @@
   <sheetPr/>
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
+    <col min="3" max="4" width="15.225" customWidth="1"/>
     <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="10.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1460,7 +1461,7 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1516,8 +1517,8 @@
       <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>19</v>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1525,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1534,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1552,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -1561,8 +1562,8 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1571,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1580,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1598,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -1607,8 +1608,8 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1617,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1626,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1644,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -1653,9 +1654,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
-        <v>29</v>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1663,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1672,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1690,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
@@ -1705,15 +1706,15 @@
       <c r="P6" s="1">
         <v>9</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1722,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -1740,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1755,15 +1756,15 @@
       <c r="P7" s="1">
         <v>10</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1772,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1790,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -1799,8 +1800,8 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1809,19 +1810,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1836,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -1845,8 +1846,8 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1855,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1864,10 +1865,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1882,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -1891,9 +1892,9 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
-        <v>43</v>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1901,7 +1902,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1910,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
@@ -1928,24 +1929,24 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1954,10 +1955,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -1972,24 +1973,24 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1">
         <v>3</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1998,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -2014,17 +2015,17 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="1">
         <v>6</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1">
         <v>12</v>
       </c>
     </row>
@@ -2033,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -2042,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -2058,17 +2059,17 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L14" s="1">
         <v>6</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
         <v>13</v>
       </c>
     </row>
@@ -2077,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -2086,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -2102,18 +2103,18 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="1">
         <v>6</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
-        <v>56</v>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2121,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -2130,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -2146,24 +2147,24 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -2172,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -2188,24 +2189,24 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2214,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -2224,7 +2225,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -2268,7 +2269,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2277,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -2287,7 +2288,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -2331,7 +2332,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2340,7 +2341,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -2350,7 +2351,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -2361,7 +2362,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2394,7 +2395,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -2403,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -2413,7 +2414,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -2455,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -2464,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -2474,7 +2475,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -2516,14 +2517,14 @@
         <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2538,7 +2539,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2718,7 +2719,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2735,7 +2736,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -440,10 +440,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,14 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -484,27 +530,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -512,33 +538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,25 +562,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,49 +599,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,127 +743,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,6 +803,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -817,20 +850,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,36 +884,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -892,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,133 +904,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,30 +1383,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
-    <col min="3" max="4" width="15.225" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
     <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.225" customWidth="1"/>
-    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="18" max="18" width="10.775" customWidth="1"/>
+    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2711,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2719,7 +2718,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2728,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2736,7 +2735,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -437,6 +437,57 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,14 +501,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,91 +538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -577,8 +561,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,19 +593,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,37 +749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,121 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,17 +787,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,8 +829,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,23 +864,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,26 +884,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -892,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,133 +904,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -448,7 +448,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,77 +553,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,36 +576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -593,43 +593,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,139 +743,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,30 +784,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -830,7 +806,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,11 +837,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,91 +904,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,40 +1015,22 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -440,6 +440,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -447,37 +448,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,19 +486,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,17 +508,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,10 +562,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,22 +583,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -593,67 +593,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,91 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,30 +784,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,17 +798,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,17 +825,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,6 +860,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -892,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,133 +904,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1391,21 +1391,21 @@
   <sheetPr/>
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
+    <col min="3" max="4" width="15.225" customWidth="1"/>
     <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="10.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2191,7 +2191,7 @@
         <v>60</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2718,7 +2718,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2735,7 +2735,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -448,16 +483,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,45 +514,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,39 +532,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,16 +546,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,187 +593,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,20 +789,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,6 +807,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,45 +884,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -892,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,139 +904,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1389,23 +1392,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
-    <col min="3" max="4" width="15.225" customWidth="1"/>
-    <col min="5" max="7" width="27.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.225" customWidth="1"/>
-    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="6" width="27.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="18" max="18" width="10.775" customWidth="1"/>
+    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1527,8 +1531,8 @@
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="2">
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1573,8 +1577,8 @@
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="C4" s="2">
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1619,8 +1623,8 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="C5" s="2">
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1665,8 +1669,8 @@
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
+      <c r="C6" s="2">
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1715,8 +1719,8 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
+      <c r="C7" s="2">
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1765,8 +1769,8 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
+      <c r="C8" s="2">
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1811,8 +1815,8 @@
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
+      <c r="C9" s="2">
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1857,8 +1861,8 @@
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
+      <c r="C10" s="2">
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1903,8 +1907,8 @@
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1">
-        <v>2</v>
+      <c r="C11" s="2">
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1947,8 +1951,8 @@
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
+      <c r="C12" s="2">
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1991,8 +1995,8 @@
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1">
-        <v>3</v>
+      <c r="C13" s="2">
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2035,8 +2039,8 @@
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1">
-        <v>3</v>
+      <c r="C14" s="2">
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -2079,8 +2083,8 @@
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1">
-        <v>3</v>
+      <c r="C15" s="2">
+        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -2123,8 +2127,8 @@
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1">
-        <v>3</v>
+      <c r="C16" s="2">
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -2165,8 +2169,8 @@
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1">
-        <v>3</v>
+      <c r="C17" s="2">
+        <v>34</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -2200,15 +2204,15 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:41">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="1">
-        <v>4</v>
+      <c r="C18" s="2">
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -2260,18 +2264,16 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:41">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="1">
-        <v>4</v>
+      <c r="C19" s="2">
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -2323,18 +2325,16 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:41">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="1">
-        <v>4</v>
+      <c r="C20" s="2">
+        <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -2386,18 +2386,16 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:41">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1">
-        <v>4</v>
+      <c r="C21" s="2">
+        <v>43</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -2447,18 +2445,16 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:41">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1">
-        <v>4</v>
+      <c r="C22" s="2">
+        <v>44</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -2508,10 +2504,8 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:41">
       <c r="A23" s="1">
         <v>100</v>
       </c>
@@ -2563,10 +2557,8 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2608,10 +2600,8 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:41">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2653,10 +2643,8 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2698,8 +2686,6 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,7 +2704,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2735,7 +2721,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Tower.xlsx
+++ b/Data/Excel/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -441,24 +441,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,14 +471,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,6 +500,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -522,49 +570,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,13 +583,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -593,13 +593,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,169 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,26 +787,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,13 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,7 +860,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,23 +868,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,142 +904,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1394,22 +1391,22 @@
   <sheetPr/>
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
+    <col min="3" max="4" width="15.225" customWidth="1"/>
     <col min="5" max="6" width="27.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="12.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="10.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1531,7 +1528,7 @@
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
@@ -1577,7 +1574,7 @@
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
       <c r="D4" s="1">
@@ -1623,7 +1620,7 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>12</v>
       </c>
       <c r="D5" s="1">
@@ -1669,7 +1666,7 @@
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>13</v>
       </c>
       <c r="D6" s="1">
@@ -1719,7 +1716,7 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>14</v>
       </c>
       <c r="D7" s="1">
@@ -1769,7 +1766,7 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>20</v>
       </c>
       <c r="D8" s="1">
@@ -1815,7 +1812,7 @@
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>21</v>
       </c>
       <c r="D9" s="1">
@@ -1861,7 +1858,7 @@
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>22</v>
       </c>
       <c r="D10" s="1">
@@ -1907,7 +1904,7 @@
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>23</v>
       </c>
       <c r="D11" s="1">
@@ -1951,7 +1948,7 @@
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>24</v>
       </c>
       <c r="D12" s="1">
@@ -1995,7 +1992,7 @@
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>30</v>
       </c>
       <c r="D13" s="1">
@@ -2039,7 +2036,7 @@
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>31</v>
       </c>
       <c r="D14" s="1">
@@ -2083,7 +2080,7 @@
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>32</v>
       </c>
       <c r="D15" s="1">
@@ -2127,7 +2124,7 @@
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>33</v>
       </c>
       <c r="D16" s="1">
@@ -2153,7 +2150,7 @@
         <v>58</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2169,7 +2166,7 @@
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>34</v>
       </c>
       <c r="D17" s="1">
@@ -2211,7 +2208,7 @@
       <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>40</v>
       </c>
       <c r="D18" s="1">
@@ -2272,7 +2269,7 @@
       <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>41</v>
       </c>
       <c r="D19" s="1">
@@ -2333,7 +2330,7 @@
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>42</v>
       </c>
       <c r="D20" s="1">
@@ -2394,7 +2391,7 @@
       <c r="B21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>43</v>
       </c>
       <c r="D21" s="1">
@@ -2453,7 +2450,7 @@
       <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>44</v>
       </c>
       <c r="D22" s="1">
@@ -2704,7 +2701,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2721,7 +2718,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
